--- a/File/01.需求说明书/jibei报表/报表样式.xlsx
+++ b/File/01.需求说明书/jibei报表/报表样式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="836"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="836" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录说明吗" sheetId="15" r:id="rId1"/>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="304">
   <si>
     <t>送检单位</t>
   </si>
@@ -880,38 +880,16 @@
 （台）</t>
   </si>
   <si>
-    <t>电能表
-检　定
-装　置
-（台）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数字
 仪表（台）</t>
-  </si>
-  <si>
-    <t>数字
-仪表（台）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>直流
 仪器（台）</t>
   </si>
   <si>
-    <t>直流
-仪器（台）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>指示
 仪表（台）</t>
-  </si>
-  <si>
-    <t>指示
-仪表（台）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>其它
@@ -1407,6 +1385,28 @@
   </si>
   <si>
     <t>受理单位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>电能表
+检　定
+装　置
+（台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字
+仪表（台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直流
+仪器（台）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示
+仪表（台）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2480,55 +2480,55 @@
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2540,11 +2540,11 @@
 </file>
 
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2552,7 +2552,7 @@
 </file>
 
 <file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2608,7 +2608,7 @@
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2648,15 +2648,15 @@
 </file>
 
 <file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2672,11 +2672,11 @@
 </file>
 
 <file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2688,11 +2688,11 @@
 </file>
 
 <file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2708,11 +2708,11 @@
 </file>
 
 <file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2784,7 +2784,7 @@
 </file>
 
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2792,7 +2792,7 @@
 </file>
 
 <file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2800,7 +2800,7 @@
 </file>
 
 <file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2828,7 +2828,7 @@
 </file>
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{978C9E23-D4B0-11CE-BF2D-00AA003F40D0}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4312,11 +4312,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="1"/>
-        <c:axId val="316470424"/>
-        <c:axId val="316470816"/>
+        <c:axId val="471065424"/>
+        <c:axId val="471065968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316470424"/>
+        <c:axId val="471065424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4359,7 +4359,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316470816"/>
+        <c:crossAx val="471065968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4367,7 +4367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316470816"/>
+        <c:axId val="471065968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4418,7 +4418,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316470424"/>
+        <c:crossAx val="471065424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5567,11 +5567,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="316473560"/>
-        <c:axId val="316473952"/>
+        <c:axId val="716296000"/>
+        <c:axId val="716303616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316473560"/>
+        <c:axId val="716296000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5614,7 +5614,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316473952"/>
+        <c:crossAx val="716303616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5622,7 +5622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316473952"/>
+        <c:axId val="716303616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5673,7 +5673,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316473560"/>
+        <c:crossAx val="716296000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6746,11 +6746,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="316473168"/>
-        <c:axId val="316472776"/>
+        <c:axId val="716295456"/>
+        <c:axId val="716297088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316473168"/>
+        <c:axId val="716295456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6793,7 +6793,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316472776"/>
+        <c:crossAx val="716297088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6801,7 +6801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316472776"/>
+        <c:axId val="716297088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6852,7 +6852,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316473168"/>
+        <c:crossAx val="716295456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8161,11 +8161,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="316475520"/>
-        <c:axId val="316475912"/>
+        <c:axId val="716291104"/>
+        <c:axId val="716301440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316475520"/>
+        <c:axId val="716291104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8208,7 +8208,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316475912"/>
+        <c:crossAx val="716301440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8216,7 +8216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316475912"/>
+        <c:axId val="716301440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8267,7 +8267,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316475520"/>
+        <c:crossAx val="716291104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11584,15 +11584,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>127000</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>546100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11641,11 +11641,11 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -11696,11 +11696,11 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -11757,7 +11757,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11804,13 +11804,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>127000</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>546100</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -11859,15 +11859,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11920,9 +11920,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11971,7 +11971,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
@@ -12024,15 +12024,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
+          <xdr:colOff>336550</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12087,7 +12087,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12136,13 +12136,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12189,15 +12189,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
+          <xdr:colOff>679450</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12246,13 +12246,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12299,15 +12299,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>546100</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12354,13 +12354,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>488950</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>619125</xdr:colOff>
+          <xdr:colOff>622300</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -12409,15 +12409,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
+          <xdr:colOff>679450</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12464,15 +12464,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>508000</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>641350</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12519,13 +12519,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>527050</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -12574,15 +12574,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12629,15 +12629,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>546100</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12690,7 +12690,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -12739,15 +12739,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12870,15 +12870,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>508000</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>641350</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12925,15 +12925,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12982,13 +12982,13 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
+          <xdr:colOff>298450</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13043,7 +13043,7 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>323850</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13090,15 +13090,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>127000</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
+          <xdr:colOff>412750</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13145,13 +13145,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>127000</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
+          <xdr:colOff>412750</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -13217,8 +13217,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="95250" y="5305425"/>
-          <a:ext cx="3267075" cy="209550"/>
+          <a:off x="95250" y="6661150"/>
+          <a:ext cx="2952750" cy="222250"/>
           <a:chOff x="0" y="8239125"/>
           <a:chExt cx="3266951" cy="276193"/>
         </a:xfrm>
@@ -13456,7 +13456,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -13507,7 +13507,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
@@ -13614,13 +13614,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13689,8 +13689,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="85725" y="7581900"/>
-          <a:ext cx="5457825" cy="238125"/>
+          <a:off x="85725" y="9509125"/>
+          <a:ext cx="4946650" cy="244475"/>
           <a:chOff x="0" y="8239125"/>
           <a:chExt cx="3266951" cy="276193"/>
         </a:xfrm>
@@ -13915,15 +13915,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13970,15 +13970,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>508000</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14130,13 +14130,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>546100</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -14345,7 +14345,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -14452,7 +14452,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -14569,13 +14569,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14676,13 +14676,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14729,7 +14729,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
+          <xdr:colOff>374650</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -14790,7 +14790,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>619125</xdr:colOff>
+          <xdr:colOff>622300</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -14891,13 +14891,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:colOff>279400</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:colOff>279400</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
@@ -15000,13 +15000,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15107,13 +15107,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15212,13 +15212,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>260350</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>260350</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -15380,13 +15380,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>514350</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15433,15 +15433,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15593,7 +15593,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
@@ -15702,13 +15702,13 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15760,13 +15760,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>885825</xdr:colOff>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -15815,15 +15815,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
+          <xdr:colOff>336550</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
+          <xdr:colOff>1212850</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15925,13 +15925,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15978,9 +15978,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
@@ -16039,9 +16039,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1057275</xdr:colOff>
+          <xdr:colOff>1060450</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16181,13 +16181,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>1295400</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>97606</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1057275</xdr:colOff>
+          <xdr:colOff>1060450</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>6166</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16293,13 +16293,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>857250</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16346,15 +16346,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
+          <xdr:colOff>679450</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>908050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16454,15 +16454,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>885825</xdr:colOff>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16652,13 +16652,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>857250</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>21406</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>876300</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>101416</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16762,7 +16762,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
@@ -16925,15 +16925,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>885825</xdr:colOff>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17123,13 +17123,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>21406</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>101416</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17233,13 +17233,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
+          <xdr:colOff>679450</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>222250</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -17288,15 +17288,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
+          <xdr:colOff>336550</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17396,15 +17396,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
+          <xdr:colOff>298450</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>1058</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17592,15 +17592,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>678654</xdr:colOff>
+          <xdr:colOff>679450</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>150390</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>682226</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>64506</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17706,13 +17706,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17759,15 +17759,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>508000</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18008,15 +18008,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>671567</xdr:colOff>
+          <xdr:colOff>679450</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>21406</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>101416</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18068,13 +18068,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>885825</xdr:colOff>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -18123,15 +18123,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
+          <xdr:colOff>336550</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
+          <xdr:colOff>1212850</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18231,15 +18231,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>565150</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>1581150</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18286,13 +18286,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
+          <xdr:colOff>1212850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -18482,15 +18482,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>21406</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1190625</xdr:colOff>
+          <xdr:colOff>1193800</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>101416</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18559,8 +18559,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="85725" y="7410450"/>
-          <a:ext cx="5457825" cy="238125"/>
+          <a:off x="85725" y="9509125"/>
+          <a:ext cx="4946650" cy="244475"/>
           <a:chOff x="0" y="8239125"/>
           <a:chExt cx="3266951" cy="276193"/>
         </a:xfrm>
@@ -18785,15 +18785,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18840,15 +18840,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:colOff>508000</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19000,13 +19000,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>546100</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -19215,7 +19215,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -19322,7 +19322,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -19439,13 +19439,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19546,13 +19546,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19601,13 +19601,13 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>565150</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19654,15 +19654,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
           <xdr:colOff>476250</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19763,13 +19763,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19870,13 +19870,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19975,13 +19975,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>260350</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
+          <xdr:colOff>374650</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -20143,13 +20143,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>514350</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20196,15 +20196,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
+          <xdr:colOff>431800</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -20356,7 +20356,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
@@ -20518,13 +20518,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>69850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
+          <xdr:colOff>412750</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -20680,13 +20680,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>21406</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>381000</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>101416</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -22840,125 +22840,125 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="68.875" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="68.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="28">
+      <c r="B3" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="28">
+      <c r="B4" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="140">
+      <c r="B5" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>204</v>
-      </c>
     </row>
-    <row r="3" spans="2:4" ht="27">
-      <c r="B3" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="56" t="s">
+    <row r="6" spans="2:4" ht="42">
+      <c r="B6" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="70">
+      <c r="B7" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="56">
+      <c r="B8" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="56" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="27">
-      <c r="B4" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="135">
-      <c r="B5" s="57" t="s">
+    <row r="9" spans="2:4" ht="42">
+      <c r="B9" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="40.5">
-      <c r="B6" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="67.5">
-      <c r="B7" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="54">
-      <c r="B8" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="40.5">
-      <c r="B9" s="57" t="s">
-        <v>234</v>
-      </c>
       <c r="C9" s="55" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="57" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="57" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -22987,14 +22987,14 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="3" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="3" width="9.90625" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" customWidth="1"/>
     <col min="17" max="19" width="9" customWidth="1"/>
-    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -23517,21 +23517,21 @@
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
     </row>
-    <row r="14" spans="1:38" s="1" customFormat="1" ht="22.5">
+    <row r="14" spans="1:38" s="1" customFormat="1" ht="24">
       <c r="A14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E14" s="96" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>84</v>
@@ -23552,7 +23552,7 @@
         <v>127</v>
       </c>
       <c r="L14" s="96" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>103</v>
@@ -23564,40 +23564,40 @@
         <v>14</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>111</v>
       </c>
       <c r="R14" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="S14" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="T14" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="U14" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="S14" s="96" t="s">
+      <c r="V14" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="T14" s="96" t="s">
+      <c r="W14" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="V14" s="16" t="s">
+      <c r="X14" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y14" s="16" t="s">
         <v>285</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="X14" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y14" s="16" t="s">
-        <v>289</v>
       </c>
       <c r="Z14" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="1" customFormat="1" ht="33.75">
+    <row r="15" spans="1:38" s="1" customFormat="1" ht="48">
       <c r="A15" s="69">
         <v>1</v>
       </c>
@@ -23611,7 +23611,7 @@
         <v>41</v>
       </c>
       <c r="E15" s="102" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F15" s="69" t="s">
         <v>23</v>
@@ -23632,10 +23632,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M15" s="69" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N15" s="69" t="s">
         <v>27</v>
@@ -23680,7 +23680,7 @@
       </c>
       <c r="Z15" s="69"/>
     </row>
-    <row r="16" spans="1:38" ht="33.75">
+    <row r="16" spans="1:38" ht="48">
       <c r="A16" s="69">
         <v>2</v>
       </c>
@@ -23694,7 +23694,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="102" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F16" s="69" t="s">
         <v>23</v>
@@ -23715,10 +23715,10 @@
         <v>1</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M16" s="69" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N16" s="69" t="s">
         <v>27</v>
@@ -23763,7 +23763,7 @@
       </c>
       <c r="Z16" s="93"/>
     </row>
-    <row r="17" spans="1:26" ht="33.75">
+    <row r="17" spans="1:26" ht="48">
       <c r="A17" s="69">
         <v>3</v>
       </c>
@@ -23777,7 +23777,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="102" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F17" s="69" t="s">
         <v>23</v>
@@ -23798,7 +23798,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M17" s="69" t="s">
         <v>105</v>
@@ -23846,7 +23846,7 @@
       </c>
       <c r="Z17" s="93"/>
     </row>
-    <row r="18" spans="1:26" ht="33.75">
+    <row r="18" spans="1:26" ht="48">
       <c r="A18" s="69">
         <v>4</v>
       </c>
@@ -23860,7 +23860,7 @@
         <v>22</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F18" s="69" t="s">
         <v>23</v>
@@ -23881,7 +23881,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M18" s="69" t="s">
         <v>108</v>
@@ -23929,7 +23929,7 @@
       </c>
       <c r="Z18" s="93"/>
     </row>
-    <row r="19" spans="1:26" ht="33.75">
+    <row r="19" spans="1:26" ht="48">
       <c r="A19" s="69">
         <v>5</v>
       </c>
@@ -23943,7 +23943,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="102" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F19" s="69" t="s">
         <v>23</v>
@@ -23964,7 +23964,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M19" s="69" t="s">
         <v>104</v>
@@ -24012,7 +24012,7 @@
       </c>
       <c r="Z19" s="93"/>
     </row>
-    <row r="20" spans="1:26" ht="33.75">
+    <row r="20" spans="1:26" ht="48">
       <c r="A20" s="69">
         <v>6</v>
       </c>
@@ -24026,7 +24026,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="102" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F20" s="69" t="s">
         <v>23</v>
@@ -24047,7 +24047,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M20" s="69" t="s">
         <v>107</v>
@@ -24095,7 +24095,7 @@
       </c>
       <c r="Z20" s="93"/>
     </row>
-    <row r="21" spans="1:26" ht="33.75">
+    <row r="21" spans="1:26" ht="48">
       <c r="A21" s="69">
         <v>7</v>
       </c>
@@ -24109,7 +24109,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="102" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F21" s="69" t="s">
         <v>23</v>
@@ -24130,10 +24130,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M21" s="69" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N21" s="69" t="s">
         <v>27</v>
@@ -24178,7 +24178,7 @@
       </c>
       <c r="Z21" s="93"/>
     </row>
-    <row r="22" spans="1:26" ht="33.75">
+    <row r="22" spans="1:26" ht="48">
       <c r="A22" s="69">
         <v>8</v>
       </c>
@@ -24192,7 +24192,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="102" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F22" s="69" t="s">
         <v>23</v>
@@ -24213,10 +24213,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M22" s="69" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N22" s="69" t="s">
         <v>27</v>
@@ -24261,7 +24261,7 @@
       </c>
       <c r="Z22" s="93"/>
     </row>
-    <row r="23" spans="1:26" s="89" customFormat="1" ht="33.75">
+    <row r="23" spans="1:26" s="89" customFormat="1" ht="48">
       <c r="A23" s="69">
         <v>9</v>
       </c>
@@ -24275,7 +24275,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="102" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F23" s="69" t="s">
         <v>23</v>
@@ -24296,10 +24296,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M23" s="69" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N23" s="69" t="s">
         <v>27</v>
@@ -24344,7 +24344,7 @@
       </c>
       <c r="Z23" s="93"/>
     </row>
-    <row r="24" spans="1:26" ht="33.75">
+    <row r="24" spans="1:26" ht="48">
       <c r="A24" s="69">
         <v>10</v>
       </c>
@@ -24358,7 +24358,7 @@
         <v>22</v>
       </c>
       <c r="E24" s="102" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F24" s="69" t="s">
         <v>23</v>
@@ -24379,10 +24379,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M24" s="69" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N24" s="69" t="s">
         <v>27</v>
@@ -24427,7 +24427,7 @@
       </c>
       <c r="Z24" s="93"/>
     </row>
-    <row r="25" spans="1:26" ht="33.75">
+    <row r="25" spans="1:26" ht="48">
       <c r="A25" s="69">
         <v>11</v>
       </c>
@@ -24441,7 +24441,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="102" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F25" s="69" t="s">
         <v>23</v>
@@ -24462,10 +24462,10 @@
         <v>3</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M25" s="69" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N25" s="69" t="s">
         <v>27</v>
@@ -24509,7 +24509,7 @@
         <v>68</v>
       </c>
       <c r="Z25" s="69" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -24520,8 +24520,458 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="83992" r:id="rId3" name="TextBox217">
+        <control shapeId="83991" r:id="rId3" name="TextBox216">
           <controlPr autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>69850</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>463550</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83991" r:id="rId3" name="TextBox216"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83990" r:id="rId5" name="TextBox210">
+          <controlPr autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83990" r:id="rId5" name="TextBox210"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83985" r:id="rId6" name="TextBox26">
+          <controlPr autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>69850</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>215900</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83985" r:id="rId6" name="TextBox26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83984" r:id="rId8" name="TextBox215">
+          <controlPr autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>88900</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>482600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>158750</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83984" r:id="rId8" name="TextBox215"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83983" r:id="rId9" name="TextBox214">
+          <controlPr autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>158750</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83983" r:id="rId9" name="TextBox214"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83982" r:id="rId10" name="TextBox213">
+          <controlPr autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>260350</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>577850</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83982" r:id="rId10" name="TextBox213"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83981" r:id="rId11" name="TextBox212">
+          <controlPr autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>584200</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83981" r:id="rId11" name="TextBox212"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83980" r:id="rId12" name="TextBox211">
+          <controlPr autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>584200</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>101600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83980" r:id="rId12" name="TextBox211"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83978" r:id="rId13" name="CommandButton22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>146050</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>82550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83978" r:id="rId13" name="CommandButton22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83977" r:id="rId15" name="CommandButton21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>25400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>82550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83977" r:id="rId15" name="CommandButton21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83976" r:id="rId17" name="TextBox29">
+          <controlPr autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>222250</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83976" r:id="rId17" name="TextBox29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83975" r:id="rId18" name="TextBox28">
+          <controlPr autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>222250</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>82550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83975" r:id="rId18" name="TextBox28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83974" r:id="rId20" name="TextBox27">
+          <controlPr autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>88900</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>234950</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83974" r:id="rId20" name="TextBox27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83973" r:id="rId21" name="TextBox25">
+          <controlPr autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>88900</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>234950</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>69850</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83973" r:id="rId21" name="TextBox25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83972" r:id="rId22" name="TextBox24">
+          <controlPr autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>508000</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83972" r:id="rId22" name="TextBox24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83971" r:id="rId23" name="TextBox23">
+          <controlPr autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>317500</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>12700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83971" r:id="rId23" name="TextBox23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83970" r:id="rId24" name="TextBox22">
+          <controlPr autoLine="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>508000</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>127000</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>203200</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83970" r:id="rId24" name="TextBox22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83969" r:id="rId26" name="TextBox21">
+          <controlPr autoLine="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>88900</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>127000</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>311150</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="83969" r:id="rId26" name="TextBox21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="83992" r:id="rId27" name="TextBox217">
+          <controlPr autoLine="0" r:id="rId28">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -24531,158 +24981,8 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
+                <xdr:colOff>584200</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83992" r:id="rId3" name="TextBox217"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83969" r:id="rId5" name="TextBox21">
-          <controlPr autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83969" r:id="rId5" name="TextBox21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83970" r:id="rId7" name="TextBox22">
-          <controlPr autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83970" r:id="rId7" name="TextBox22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83971" r:id="rId8" name="TextBox23">
-          <controlPr autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83971" r:id="rId8" name="TextBox23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83972" r:id="rId10" name="TextBox24">
-          <controlPr autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83972" r:id="rId10" name="TextBox24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83973" r:id="rId11" name="TextBox25">
-          <controlPr autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83973" r:id="rId11" name="TextBox25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83974" r:id="rId13" name="TextBox27">
-          <controlPr autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>6</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -24690,307 +24990,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="83974" r:id="rId13" name="TextBox27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83975" r:id="rId15" name="TextBox28">
-          <controlPr autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83975" r:id="rId15" name="TextBox28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83976" r:id="rId16" name="TextBox29">
-          <controlPr autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83976" r:id="rId16" name="TextBox29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83977" r:id="rId17" name="CommandButton21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83977" r:id="rId17" name="CommandButton21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83978" r:id="rId19" name="CommandButton22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83978" r:id="rId19" name="CommandButton22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83980" r:id="rId21" name="TextBox211">
-          <controlPr autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83980" r:id="rId21" name="TextBox211"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83981" r:id="rId22" name="TextBox212">
-          <controlPr autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83981" r:id="rId22" name="TextBox212"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83982" r:id="rId23" name="TextBox213">
-          <controlPr autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83982" r:id="rId23" name="TextBox213"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83983" r:id="rId24" name="TextBox214">
-          <controlPr autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83983" r:id="rId24" name="TextBox214"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83984" r:id="rId25" name="TextBox215">
-          <controlPr autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83984" r:id="rId25" name="TextBox215"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83985" r:id="rId26" name="TextBox26">
-          <controlPr autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83985" r:id="rId26" name="TextBox26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83990" r:id="rId27" name="TextBox210">
-          <controlPr autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83990" r:id="rId27" name="TextBox210"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="83991" r:id="rId28" name="TextBox216">
-          <controlPr autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="83991" r:id="rId28" name="TextBox216"/>
+        <control shapeId="83992" r:id="rId27" name="TextBox217"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -25002,16 +25002,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -25300,18 +25298,18 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:26" s="1" customFormat="1" ht="22.5">
+    <row r="12" spans="1:26" s="1" customFormat="1" ht="24">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="101" t="s">
         <v>293</v>
-      </c>
-      <c r="C12" s="101" t="s">
-        <v>294</v>
-      </c>
-      <c r="D12" s="101" t="s">
-        <v>297</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -25380,7 +25378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="1" customFormat="1" ht="33.75">
+    <row r="13" spans="1:26" s="1" customFormat="1" ht="48">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -25388,10 +25386,10 @@
         <v>41</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E13" s="13">
         <v>38108</v>
@@ -25460,7 +25458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="33.75">
+    <row r="14" spans="1:26" ht="48">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -25468,10 +25466,10 @@
         <v>41</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E14" s="13">
         <v>38108</v>
@@ -25538,7 +25536,7 @@
       </c>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="33.75">
+    <row r="15" spans="1:26" ht="48">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -25546,10 +25544,10 @@
         <v>42</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E15" s="13">
         <v>38108</v>
@@ -25614,7 +25612,7 @@
       </c>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" ht="33.75">
+    <row r="16" spans="1:26" ht="48">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -25622,10 +25620,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="102" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E16" s="13">
         <v>38108</v>
@@ -25690,7 +25688,7 @@
       </c>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" ht="33.75">
+    <row r="17" spans="1:26" ht="48">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -25698,10 +25696,10 @@
         <v>22</v>
       </c>
       <c r="C17" s="102" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E17" s="13">
         <v>38108</v>
@@ -25766,7 +25764,7 @@
       </c>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" ht="33.75">
+    <row r="18" spans="1:26" ht="48">
       <c r="A18" s="4">
         <v>7</v>
       </c>
@@ -25774,10 +25772,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="102" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E18" s="13">
         <v>38108</v>
@@ -25844,7 +25842,7 @@
       </c>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" ht="33.75">
+    <row r="19" spans="1:26" ht="48">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -25852,10 +25850,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="102" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E19" s="13">
         <v>38108</v>
@@ -25928,68 +25926,68 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId3" name="TextBox212">
-          <controlPr autoLine="0" r:id="rId4">
+        <control shapeId="1025" r:id="rId3" name="TextBox21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>127000</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1077" r:id="rId3" name="TextBox212"/>
+        <control shapeId="1025" r:id="rId3" name="TextBox21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId5" name="TextBox211">
+        <control shapeId="1026" r:id="rId5" name="Label21">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>412750</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1076" r:id="rId5" name="TextBox211"/>
+        <control shapeId="1026" r:id="rId5" name="Label21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId7" name="Label214">
+        <control shapeId="1027" r:id="rId7" name="Label22">
           <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>88900</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>215900</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
@@ -25998,124 +25996,124 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1075" r:id="rId7" name="Label214"/>
+        <control shapeId="1027" r:id="rId7" name="Label22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId9" name="CommandButton22">
+        <control shapeId="1028" r:id="rId9" name="TextBox22">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId9" name="CommandButton22"/>
+        <control shapeId="1028" r:id="rId9" name="TextBox22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId11" name="CommandButton21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+        <control shapeId="1029" r:id="rId11" name="TextBox23">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>127000</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId11" name="CommandButton21"/>
+        <control shapeId="1029" r:id="rId11" name="TextBox23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId13" name="Label213">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+        <control shapeId="1030" r:id="rId12" name="Label23">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>31750</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>31750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId13" name="Label213"/>
+        <control shapeId="1030" r:id="rId12" name="Label23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId15" name="Label212">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+        <control shapeId="1031" r:id="rId14" name="Label24">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>215900</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId15" name="Label212"/>
+        <control shapeId="1031" r:id="rId14" name="Label24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId17" name="Label211">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+        <control shapeId="1032" r:id="rId16" name="TextBox24">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
@@ -26123,263 +26121,38 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId17" name="Label211"/>
+        <control shapeId="1032" r:id="rId16" name="TextBox24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId19" name="TextBox210">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+        <control shapeId="1033" r:id="rId17" name="Label25">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>336550</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId19" name="TextBox210"/>
+        <control shapeId="1033" r:id="rId17" name="Label25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId20" name="Label210">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId20" name="Label210"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId22" name="TextBox29">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId22" name="TextBox29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId24" name="Label29">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId24" name="Label29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId26" name="TextBox28">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId26" name="TextBox28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId28" name="Label28">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId28" name="Label28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId30" name="TextBox27">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId30" name="TextBox27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId31" name="Label27">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId32">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId31" name="Label27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId33" name="TextBox26">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId33" name="TextBox26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId34" name="Label26">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId35">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>323850</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId34" name="Label26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId36" name="TextBox25">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
+        <control shapeId="1034" r:id="rId19" name="TextBox25">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -26391,206 +26164,356 @@
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId36" name="TextBox25"/>
+        <control shapeId="1034" r:id="rId19" name="TextBox25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId37" name="Label25">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId38">
+        <control shapeId="1035" r:id="rId21" name="Label26">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>333375</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>323850</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId37" name="Label25"/>
+        <control shapeId="1035" r:id="rId21" name="Label26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId39" name="TextBox24">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId40">
+        <control shapeId="1036" r:id="rId23" name="TextBox26">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>63500</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId39" name="TextBox24"/>
+        <control shapeId="1036" r:id="rId23" name="TextBox26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId41" name="Label24">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId42">
+        <control shapeId="1037" r:id="rId24" name="Label27">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>31750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId41" name="Label24"/>
+        <control shapeId="1037" r:id="rId24" name="Label27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId43" name="Label23">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId44">
+        <control shapeId="1038" r:id="rId26" name="TextBox27">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>12700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>158750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId43" name="Label23"/>
+        <control shapeId="1038" r:id="rId26" name="TextBox27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId45" name="TextBox23">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId46">
+        <control shapeId="1039" r:id="rId27" name="Label28">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId28">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>488950</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>88900</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>6350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId45" name="TextBox23"/>
+        <control shapeId="1039" r:id="rId27" name="Label28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId47" name="TextBox22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId40">
+        <control shapeId="1040" r:id="rId29" name="TextBox28">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId30">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>679450</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>527050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId47" name="TextBox22"/>
+        <control shapeId="1040" r:id="rId29" name="TextBox28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId48" name="Label22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId49">
+        <control shapeId="1041" r:id="rId31" name="Label29">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId32">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>508000</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>120650</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId48" name="Label22"/>
+        <control shapeId="1041" r:id="rId31" name="Label29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId50" name="Label21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId51">
+        <control shapeId="1042" r:id="rId33" name="TextBox29">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId34">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>12700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>31750</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>527050</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId33" name="TextBox29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId35" name="Label210">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId36">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>317500</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>127000</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>127000</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId35" name="Label210"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId37" name="TextBox210">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>12700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>139700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId37" name="TextBox210"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId38" name="Label211">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId39">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>241300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId38" name="Label211"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId40" name="Label212">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId41">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>31750</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>127000</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>234950</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>120650</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId40" name="Label212"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId42" name="Label213">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId43">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>508000</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>44450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId42" name="Label213"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId44" name="CommandButton21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId45">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>50800</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
@@ -26598,32 +26521,107 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId50" name="Label21"/>
+        <control shapeId="1054" r:id="rId44" name="CommandButton21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId52" name="TextBox21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId46">
+        <control shapeId="1055" r:id="rId46" name="CommandButton22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId47">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>406400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId52" name="TextBox21"/>
+        <control shapeId="1055" r:id="rId46" name="CommandButton22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1075" r:id="rId48" name="Label214">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId49">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>254000</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1075" r:id="rId48" name="Label214"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1076" r:id="rId50" name="TextBox211">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1076" r:id="rId50" name="TextBox211"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1077" r:id="rId51" name="TextBox212">
+          <controlPr autoLine="0" r:id="rId52">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>127000</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>292100</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1077" r:id="rId51" name="TextBox212"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -26641,7 +26639,7 @@
                 <xdr:col>14</xdr:col>
                 <xdr:colOff>323850</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -26655,15 +26653,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>127000</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:colOff>412750</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>50800</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -26677,13 +26675,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>127000</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>127000</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:colOff>412750</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -26702,16 +26700,16 @@
   <dimension ref="A1:AP43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="3" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="3" width="9.90625" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
@@ -27260,7 +27258,7 @@
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
     </row>
-    <row r="14" spans="1:41" s="1" customFormat="1" ht="22.5">
+    <row r="14" spans="1:41" s="1" customFormat="1" ht="24">
       <c r="A14" s="16" t="s">
         <v>40</v>
       </c>
@@ -27271,13 +27269,13 @@
         <v>56</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="96" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>2</v>
@@ -27382,7 +27380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:41" s="1" customFormat="1" ht="40.5">
+    <row r="15" spans="1:41" s="1" customFormat="1" ht="48">
       <c r="A15" s="32">
         <v>1</v>
       </c>
@@ -27399,7 +27397,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="97" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G15" s="34">
         <v>38108</v>
@@ -27435,7 +27433,7 @@
         <v>98</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="S15" s="34">
         <v>42431</v>
@@ -27512,7 +27510,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="33.75">
+    <row r="16" spans="1:41" ht="48">
       <c r="A16" s="32">
         <v>2</v>
       </c>
@@ -27529,7 +27527,7 @@
         <v>41</v>
       </c>
       <c r="F16" s="97" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G16" s="34">
         <v>38108</v>
@@ -27635,7 +27633,7 @@
       </c>
       <c r="AN16" s="33"/>
     </row>
-    <row r="17" spans="1:41" ht="33.75">
+    <row r="17" spans="1:41" ht="48">
       <c r="A17" s="32">
         <v>3</v>
       </c>
@@ -27652,7 +27650,7 @@
         <v>42</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G17" s="34">
         <v>38108</v>
@@ -27754,7 +27752,7 @@
       </c>
       <c r="AN17" s="33"/>
     </row>
-    <row r="18" spans="1:41" ht="40.5">
+    <row r="18" spans="1:41" ht="48">
       <c r="A18" s="14">
         <v>4</v>
       </c>
@@ -27765,13 +27763,13 @@
         <v>49</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G18" s="17">
         <v>38108</v>
@@ -27874,7 +27872,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="33.75">
+    <row r="19" spans="1:41" ht="48">
       <c r="A19" s="14">
         <v>5</v>
       </c>
@@ -27891,7 +27889,7 @@
         <v>22</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G19" s="17">
         <v>38108</v>
@@ -27991,7 +27989,7 @@
       </c>
       <c r="AN19" s="15"/>
     </row>
-    <row r="20" spans="1:41" ht="33.75">
+    <row r="20" spans="1:41" ht="48">
       <c r="A20" s="14">
         <v>6</v>
       </c>
@@ -28008,7 +28006,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G20" s="17">
         <v>38108</v>
@@ -28110,7 +28108,7 @@
       </c>
       <c r="AN20" s="15"/>
     </row>
-    <row r="21" spans="1:41" ht="33.75">
+    <row r="21" spans="1:41" ht="48">
       <c r="A21" s="14">
         <v>7</v>
       </c>
@@ -28127,7 +28125,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G21" s="17">
         <v>38108</v>
@@ -28231,7 +28229,7 @@
       </c>
       <c r="AN21" s="15"/>
     </row>
-    <row r="22" spans="1:41" ht="33.75">
+    <row r="22" spans="1:41" ht="48">
       <c r="A22" s="26">
         <v>8</v>
       </c>
@@ -28248,7 +28246,7 @@
         <v>81</v>
       </c>
       <c r="F22" s="99" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G22" s="28">
         <v>38108</v>
@@ -28353,7 +28351,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:41" s="25" customFormat="1" ht="33.75">
+    <row r="23" spans="1:41" s="25" customFormat="1" ht="48">
       <c r="A23" s="19">
         <v>9</v>
       </c>
@@ -28370,7 +28368,7 @@
         <v>82</v>
       </c>
       <c r="F23" s="100" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G23" s="20">
         <v>38108</v>
@@ -28463,7 +28461,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="33.75">
+    <row r="24" spans="1:41" ht="48">
       <c r="A24" s="14">
         <v>10</v>
       </c>
@@ -28480,7 +28478,7 @@
         <v>83</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G24" s="17">
         <v>38108</v>
@@ -28570,7 +28568,7 @@
       </c>
       <c r="AN24" s="15"/>
     </row>
-    <row r="25" spans="1:41" ht="33.75">
+    <row r="25" spans="1:41" ht="48">
       <c r="A25" s="19">
         <v>11</v>
       </c>
@@ -28587,7 +28585,7 @@
         <v>80</v>
       </c>
       <c r="F25" s="100" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G25" s="20">
         <v>38108</v>
@@ -28737,337 +28735,112 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2381" r:id="rId3" name="TextBox216">
+        <control shapeId="2331" r:id="rId3" name="TextBox21">
           <controlPr autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>88900</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>127000</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>311150</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2381" r:id="rId3" name="TextBox216"/>
+        <control shapeId="2331" r:id="rId3" name="TextBox21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2380" r:id="rId5" name="TextBox26">
+        <control shapeId="2332" r:id="rId5" name="TextBox22">
           <controlPr autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>508000</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>127000</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>203200</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2380" r:id="rId5" name="TextBox26"/>
+        <control shapeId="2332" r:id="rId5" name="TextBox22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2379" r:id="rId6" name="TextBox215">
+        <control shapeId="2333" r:id="rId6" name="TextBox23">
           <controlPr autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>317500</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>12700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2379" r:id="rId6" name="TextBox215"/>
+        <control shapeId="2333" r:id="rId6" name="TextBox23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2378" r:id="rId8" name="TextBox214">
+        <control shapeId="2334" r:id="rId8" name="TextBox24">
           <controlPr autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2378" r:id="rId8" name="TextBox214"/>
+        <control shapeId="2334" r:id="rId8" name="TextBox24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2377" r:id="rId9" name="TextBox213">
-          <controlPr autoLine="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2377" r:id="rId9" name="TextBox213"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2376" r:id="rId10" name="TextBox212">
-          <controlPr autoLine="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2376" r:id="rId10" name="TextBox212"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2375" r:id="rId11" name="TextBox211">
-          <controlPr autoLine="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2375" r:id="rId11" name="TextBox211"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2374" r:id="rId12" name="TextBox210">
-          <controlPr autoLine="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2374" r:id="rId12" name="TextBox210"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2360" r:id="rId13" name="CommandButton22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2360" r:id="rId13" name="CommandButton22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2359" r:id="rId15" name="CommandButton21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2359" r:id="rId15" name="CommandButton21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2358" r:id="rId17" name="TextBox29">
-          <controlPr autoLine="0" r:id="rId4">
+        <control shapeId="2343" r:id="rId9" name="TextBox25">
+          <controlPr autoLine="0" autoPict="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2358" r:id="rId17" name="TextBox29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2357" r:id="rId18" name="TextBox28">
-          <controlPr autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2357" r:id="rId18" name="TextBox28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2345" r:id="rId20" name="TextBox27">
-          <controlPr autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2345" r:id="rId20" name="TextBox27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2343" r:id="rId21" name="TextBox25">
-          <controlPr autoLine="0" autoPict="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:colOff>88900</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
@@ -29082,23 +28855,323 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2343" r:id="rId21" name="TextBox25"/>
+        <control shapeId="2343" r:id="rId9" name="TextBox25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2334" r:id="rId22" name="TextBox24">
+        <control shapeId="2345" r:id="rId11" name="TextBox27">
+          <controlPr autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>88900</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>234950</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2345" r:id="rId11" name="TextBox27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2357" r:id="rId13" name="TextBox28">
+          <controlPr autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>222250</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>82550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2357" r:id="rId13" name="TextBox28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2358" r:id="rId14" name="TextBox29">
+          <controlPr autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>222250</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2358" r:id="rId14" name="TextBox29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2359" r:id="rId15" name="CommandButton21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>374650</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2359" r:id="rId15" name="CommandButton21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2360" r:id="rId17" name="CommandButton22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>82550</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2360" r:id="rId17" name="CommandButton22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2374" r:id="rId19" name="TextBox210">
+          <controlPr autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>279400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>508000</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>127000</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2374" r:id="rId19" name="TextBox210"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2375" r:id="rId20" name="TextBox211">
+          <controlPr autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>101600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2375" r:id="rId20" name="TextBox211"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2376" r:id="rId21" name="TextBox212">
+          <controlPr autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2376" r:id="rId21" name="TextBox212"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2377" r:id="rId22" name="TextBox213">
+          <controlPr autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>260350</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>488950</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2377" r:id="rId22" name="TextBox213"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2378" r:id="rId23" name="TextBox214">
+          <controlPr autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>158750</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2378" r:id="rId23" name="TextBox214"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2379" r:id="rId24" name="TextBox215">
           <controlPr autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:colOff>88900</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:colOff>393700</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>158750</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2379" r:id="rId24" name="TextBox215"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2380" r:id="rId25" name="TextBox26">
+          <controlPr autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>69850</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>215900</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2380" r:id="rId25" name="TextBox26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2381" r:id="rId26" name="TextBox216">
+          <controlPr autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>165100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -29107,82 +29180,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2334" r:id="rId22" name="TextBox24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2333" r:id="rId23" name="TextBox23">
-          <controlPr autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2333" r:id="rId23" name="TextBox23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2332" r:id="rId24" name="TextBox22">
-          <controlPr autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2332" r:id="rId24" name="TextBox22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2331" r:id="rId26" name="TextBox21">
-          <controlPr autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2331" r:id="rId26" name="TextBox21"/>
+        <control shapeId="2381" r:id="rId26" name="TextBox216"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -29195,25 +29193,25 @@
   <dimension ref="A2:U83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" style="8" customWidth="1"/>
     <col min="20" max="20" width="12" style="8" customWidth="1"/>
-    <col min="21" max="21" width="5.25" style="8" customWidth="1"/>
+    <col min="21" max="21" width="5.26953125" style="8" customWidth="1"/>
     <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.25" customWidth="1"/>
+    <col min="24" max="24" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
       <c r="B2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="2:21">
@@ -29230,7 +29228,7 @@
     </row>
     <row r="6" spans="2:21">
       <c r="B6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q6" s="59"/>
       <c r="R6" s="59"/>
@@ -29247,7 +29245,7 @@
     </row>
     <row r="8" spans="2:21">
       <c r="B8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="59"/>
       <c r="R8" s="59"/>
@@ -29627,7 +29625,7 @@
       <c r="U48" s="59"/>
     </row>
     <row r="49" spans="1:21" s="80" customFormat="1"/>
-    <row r="50" spans="1:21" s="80" customFormat="1" ht="22.5">
+    <row r="50" spans="1:21" s="80" customFormat="1" ht="24">
       <c r="A50" s="81" t="s">
         <v>40</v>
       </c>
@@ -29717,7 +29715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="80" customFormat="1" ht="22.5">
+    <row r="53" spans="1:21" s="80" customFormat="1" ht="24">
       <c r="A53" s="81">
         <v>3</v>
       </c>
@@ -29807,7 +29805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="80" customFormat="1" ht="22.5">
+    <row r="56" spans="1:21" s="80" customFormat="1" ht="24">
       <c r="A56" s="81">
         <v>6</v>
       </c>
@@ -29945,7 +29943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="80" customFormat="1" ht="22.5">
+    <row r="61" spans="1:21" s="80" customFormat="1" ht="24">
       <c r="A61" s="81">
         <v>11</v>
       </c>
@@ -30008,7 +30006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="80" customFormat="1" ht="22.5">
+    <row r="64" spans="1:21" s="80" customFormat="1" ht="24">
       <c r="A64" s="81">
         <v>14</v>
       </c>
@@ -30119,7 +30117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="80" customFormat="1" ht="22.5">
+    <row r="69" spans="1:7" s="80" customFormat="1" ht="24">
       <c r="A69" s="81">
         <v>19</v>
       </c>
@@ -30182,7 +30180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="80" customFormat="1" ht="22.5">
+    <row r="72" spans="1:7" s="80" customFormat="1" ht="24">
       <c r="A72" s="81">
         <v>22</v>
       </c>
@@ -30293,7 +30291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="80" customFormat="1" ht="22.5">
+    <row r="77" spans="1:7" s="80" customFormat="1" ht="24">
       <c r="A77" s="81">
         <v>27</v>
       </c>
@@ -30356,7 +30354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="80" customFormat="1" ht="22.5">
+    <row r="80" spans="1:7" s="80" customFormat="1" ht="24">
       <c r="A80" s="81">
         <v>30</v>
       </c>
@@ -30430,33 +30428,108 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4106" r:id="rId4" name="TextBox25">
-          <controlPr autoLine="0" r:id="rId5">
+        <control shapeId="4098" r:id="rId4" name="TextBox21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1295400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>12700</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>165100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1057275</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>6350</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4106" r:id="rId4" name="TextBox25"/>
+        <control shapeId="4098" r:id="rId4" name="TextBox21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4105" r:id="rId6" name="TextBox24">
+        <control shapeId="4099" r:id="rId6" name="TextBox22">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>336550</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1212850</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4099" r:id="rId6" name="TextBox22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4101" r:id="rId8" name="CommandButton21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>69850</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>146050</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>139700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4101" r:id="rId8" name="CommandButton21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4104" r:id="rId10" name="TextBox23">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>12700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>165100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1149350</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4104" r:id="rId10" name="TextBox23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4105" r:id="rId12" name="TextBox24">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -30466,116 +30539,41 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1057275</xdr:colOff>
+                <xdr:colOff>1136650</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4105" r:id="rId6" name="TextBox24"/>
+        <control shapeId="4105" r:id="rId12" name="TextBox24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4104" r:id="rId8" name="TextBox23">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="4106" r:id="rId13" name="TextBox25">
+          <controlPr autoLine="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1066800</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>1174750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4104" r:id="rId8" name="TextBox23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId9" name="CommandButton21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4101" r:id="rId9" name="CommandButton21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId11" name="TextBox22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>333375</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1209675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4099" r:id="rId11" name="TextBox22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId13" name="TextBox21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>885825</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4098" r:id="rId13" name="TextBox21"/>
+        <control shapeId="4106" r:id="rId13" name="TextBox25"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -30588,18 +30586,18 @@
   <dimension ref="B7:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="8" width="15.36328125" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:9">
@@ -30607,30 +30605,30 @@
         <v>103</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="H7" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H7" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C8" s="6">
         <v>5</v>
@@ -30708,7 +30706,7 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C11" s="6">
         <v>5</v>
@@ -30760,7 +30758,7 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="65" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C13" s="65">
         <f t="shared" ref="C13:I13" si="0">SUM(C8:C12)</f>
@@ -30799,8 +30797,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55312" r:id="rId3" name="TextBox23">
+        <control shapeId="55298" r:id="rId3" name="TextBox21">
           <controlPr autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId3" name="TextBox21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId5" name="TextBox22">
+          <controlPr autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>63500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId5" name="TextBox22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55310" r:id="rId6" name="CommandButton21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1041400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>984250</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55310" r:id="rId6" name="CommandButton21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55312" r:id="rId8" name="TextBox23">
+          <controlPr autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -30810,91 +30883,16 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:colOff>1066800</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55312" r:id="rId3" name="TextBox23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55310" r:id="rId5" name="CommandButton21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1038225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>885825</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55310" r:id="rId5" name="CommandButton21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId7" name="TextBox22">
-          <controlPr autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId7" name="TextBox22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId9" name="TextBox21">
-          <controlPr autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId9" name="TextBox21"/>
+        <control shapeId="55312" r:id="rId8" name="TextBox23"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -30907,44 +30905,44 @@
   <dimension ref="B6:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" ht="24">
       <c r="B6" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="H6" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H6" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -31157,7 +31155,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="65" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C15" s="66">
         <f>SUM(C7:C14)</f>
@@ -31205,8 +31203,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="65542" r:id="rId3" name="TextBox23">
+        <control shapeId="65537" r:id="rId3" name="TextBox21">
           <controlPr autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>317500</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="65537" r:id="rId3" name="TextBox21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="65538" r:id="rId5" name="TextBox22">
+          <controlPr autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>800100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>635000</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="65538" r:id="rId5" name="TextBox22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="65539" r:id="rId6" name="CommandButton21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1041400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="65539" r:id="rId6" name="CommandButton21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="65542" r:id="rId8" name="TextBox23">
+          <controlPr autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -31216,91 +31289,16 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
+                <xdr:colOff>488950</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="65542" r:id="rId3" name="TextBox23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="65539" r:id="rId5" name="CommandButton21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1038225</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>885825</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="65539" r:id="rId5" name="CommandButton21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="65538" r:id="rId7" name="TextBox22">
-          <controlPr autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>800100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="65538" r:id="rId7" name="TextBox22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="65537" r:id="rId9" name="TextBox21">
-          <controlPr autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="65537" r:id="rId9" name="TextBox21"/>
+        <control shapeId="65542" r:id="rId8" name="TextBox23"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -31312,15 +31310,15 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B5:X17"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="13" max="13" width="9.75" customWidth="1"/>
-    <col min="14" max="21" width="9.75" style="58" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" customWidth="1"/>
+    <col min="14" max="21" width="9.7265625" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:24">
@@ -31339,7 +31337,7 @@
     <row r="6" spans="2:24">
       <c r="M6" s="11"/>
       <c r="N6" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -31352,13 +31350,11 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
     </row>
-    <row r="7" spans="2:24" ht="45">
+    <row r="7" spans="2:24" ht="48">
       <c r="B7" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>213</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="7" t="s">
         <v>166</v>
       </c>
@@ -31366,64 +31362,62 @@
         <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>301</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>176</v>
+        <v>302</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="N7" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q7" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="R7" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="S7" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="P7" s="41" t="s">
+      <c r="T7" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="U7" s="42" t="s">
         <v>187</v>
-      </c>
-      <c r="R7" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="S7" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="T7" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="U7" s="42" t="s">
-        <v>191</v>
       </c>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
     </row>
-    <row r="8" spans="2:24" ht="22.5">
+    <row r="8" spans="2:24" ht="24">
       <c r="B8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="C8" s="14"/>
       <c r="D8" s="14">
         <v>3</v>
       </c>
@@ -31483,13 +31477,11 @@
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
     </row>
-    <row r="9" spans="2:24" ht="22.5">
+    <row r="9" spans="2:24" ht="24">
       <c r="B9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="C9" s="14"/>
       <c r="D9" s="14">
         <v>4</v>
       </c>
@@ -31519,7 +31511,7 @@
         <v>13</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N9" s="46">
         <v>3</v>
@@ -31549,13 +31541,11 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
     </row>
-    <row r="10" spans="2:24" ht="22.5">
+    <row r="10" spans="2:24" ht="24">
       <c r="B10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="C10" s="14"/>
       <c r="D10" s="14">
         <v>4</v>
       </c>
@@ -31585,7 +31575,7 @@
         <v>12</v>
       </c>
       <c r="M10" s="49" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N10" s="50">
         <v>4</v>
@@ -31615,13 +31605,11 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
     </row>
-    <row r="11" spans="2:24" ht="33.75">
+    <row r="11" spans="2:24" ht="24">
       <c r="B11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="14">
         <v>3</v>
       </c>
@@ -31665,7 +31653,7 @@
     </row>
     <row r="12" spans="2:24" s="64" customFormat="1">
       <c r="B12" s="70" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="72">
@@ -31717,7 +31705,7 @@
       <c r="W12" s="74"/>
       <c r="X12" s="74"/>
     </row>
-    <row r="13" spans="2:24" ht="54">
+    <row r="13" spans="2:24" ht="56">
       <c r="M13" s="8"/>
       <c r="N13" s="8" t="s">
         <v>165</v>
@@ -31729,19 +31717,19 @@
         <v>171</v>
       </c>
       <c r="Q13" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="R13" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="R13" s="53" t="s">
-        <v>175</v>
-      </c>
       <c r="S13" s="53" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="T13" s="53" t="s">
         <v>169</v>
       </c>
       <c r="U13" s="53" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
@@ -31781,7 +31769,7 @@
     </row>
     <row r="15" spans="2:24">
       <c r="M15" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N15" s="8">
         <v>3</v>
@@ -31813,7 +31801,7 @@
     </row>
     <row r="16" spans="2:24">
       <c r="M16" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N16" s="8">
         <v>4</v>
@@ -31860,107 +31848,108 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="75780" r:id="rId4" name="TextBox23">
-          <controlPr autoLine="0" r:id="rId5">
+        <control shapeId="75777" r:id="rId5" name="TextBox21">
+          <controlPr autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="75780" r:id="rId4" name="TextBox23"/>
+        <control shapeId="75777" r:id="rId5" name="TextBox21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="75779" r:id="rId6" name="CommandButton21">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="75778" r:id="rId7" name="TextBox22">
+          <controlPr autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>146050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>628650</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>412750</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="75779" r:id="rId6" name="CommandButton21"/>
+        <control shapeId="75778" r:id="rId7" name="TextBox22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="75778" r:id="rId8" name="TextBox22">
-          <controlPr autoLine="0" r:id="rId9">
+        <control shapeId="75779" r:id="rId8" name="CommandButton21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>298450</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>333375</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>101600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="75778" r:id="rId8" name="TextBox22"/>
+        <control shapeId="75779" r:id="rId8" name="CommandButton21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="75777" r:id="rId10" name="TextBox21">
-          <controlPr autoLine="0" r:id="rId9">
+        <control shapeId="75780" r:id="rId10" name="TextBox23">
+          <controlPr autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>0</xdr:row>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>234950</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="75777" r:id="rId10" name="TextBox21"/>
+        <control shapeId="75780" r:id="rId10" name="TextBox23"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -31976,52 +31965,52 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="10" width="12.25" customWidth="1"/>
-    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="4" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="8" width="11.36328125" customWidth="1"/>
+    <col min="9" max="10" width="12.26953125" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" ht="24">
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J6" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="H6" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="J6" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
@@ -32053,7 +32042,7 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C8" s="4">
         <v>19</v>
@@ -32085,7 +32074,7 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
@@ -32117,7 +32106,7 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
@@ -32149,7 +32138,7 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C11" s="4">
         <v>5</v>
@@ -32181,7 +32170,7 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="67" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C12" s="66">
         <f>SUM(C7:C11)</f>
@@ -32228,45 +32217,45 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="79877" r:id="rId3" name="TextBox23">
-          <controlPr autoLine="0" autoPict="0" r:id="rId4">
+        <control shapeId="79873" r:id="rId3" name="TextBox21">
+          <controlPr autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>158750</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>101600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="79877" r:id="rId3" name="TextBox23"/>
+        <control shapeId="79873" r:id="rId3" name="TextBox21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="79874" r:id="rId5" name="TextBox22">
-          <controlPr autoLine="0" r:id="rId6">
+          <controlPr autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:colOff>508000</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>50800</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:colOff>628650</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>101600</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -32278,27 +32267,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="79873" r:id="rId7" name="TextBox21">
-          <controlPr autoLine="0" r:id="rId6">
+        <control shapeId="79877" r:id="rId6" name="TextBox23">
+          <controlPr autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>679450</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="79873" r:id="rId7" name="TextBox21"/>
+        <control shapeId="79877" r:id="rId6" name="TextBox23"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -32311,33 +32300,33 @@
   <dimension ref="A2:X81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="21.25" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="21.26953125" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" customWidth="1"/>
+    <col min="13" max="13" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7265625" style="8" customWidth="1"/>
     <col min="23" max="23" width="12" style="8" customWidth="1"/>
-    <col min="24" max="24" width="5.25" style="8" customWidth="1"/>
+    <col min="24" max="24" width="5.26953125" style="8" customWidth="1"/>
     <col min="25" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.25" customWidth="1"/>
+    <col min="27" max="27" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
       <c r="B2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="2:24">
       <c r="B4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="2:24">
@@ -32356,7 +32345,7 @@
     </row>
     <row r="7" spans="2:24">
       <c r="L7" s="90" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M7" s="90" t="s">
         <v>70</v>
@@ -32376,22 +32365,22 @@
     </row>
     <row r="9" spans="2:24">
       <c r="B9" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="L9" s="90" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M9" s="90" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="S9" s="59"/>
       <c r="T9" s="59"/>
@@ -32402,22 +32391,22 @@
     </row>
     <row r="10" spans="2:24">
       <c r="B10" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
       <c r="L10" s="91" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M10" s="92">
         <v>2</v>
@@ -32431,22 +32420,22 @@
     </row>
     <row r="11" spans="2:24">
       <c r="B11" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
       <c r="L11" s="91" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M11" s="92">
         <v>1</v>
@@ -32460,22 +32449,22 @@
     </row>
     <row r="12" spans="2:24">
       <c r="B12" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>157</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
       <c r="H12" s="60"/>
       <c r="L12" s="91" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M12" s="92">
         <v>2</v>
@@ -32489,22 +32478,22 @@
     </row>
     <row r="13" spans="2:24">
       <c r="B13" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
       <c r="H13" s="60"/>
       <c r="L13" s="91" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M13" s="92">
         <v>1</v>
@@ -32518,22 +32507,22 @@
     </row>
     <row r="14" spans="2:24">
       <c r="B14" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>158</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
       <c r="H14" s="60"/>
       <c r="L14" s="91" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M14" s="92">
         <v>1</v>
@@ -32547,22 +32536,22 @@
     </row>
     <row r="15" spans="2:24">
       <c r="B15" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
       <c r="H15" s="60"/>
       <c r="L15" s="91" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M15" s="92">
         <v>1</v>
@@ -32576,16 +32565,16 @@
     </row>
     <row r="16" spans="2:24">
       <c r="B16" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -32605,16 +32594,16 @@
     </row>
     <row r="17" spans="2:24">
       <c r="B17" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -32842,7 +32831,7 @@
       <c r="X46" s="59"/>
     </row>
     <row r="47" spans="1:24" s="80" customFormat="1"/>
-    <row r="48" spans="1:24" s="80" customFormat="1" ht="22.5">
+    <row r="48" spans="1:24" s="80" customFormat="1" ht="24">
       <c r="A48" s="81" t="s">
         <v>40</v>
       </c>
@@ -33744,52 +33733,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="81927" r:id="rId5" name="TextBox24">
-          <controlPr autoLine="0" autoPict="0" r:id="rId6">
+        <control shapeId="81921" r:id="rId5" name="TextBox21">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>12700</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>165100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1190625</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>889000</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="81927" r:id="rId5" name="TextBox24"/>
+        <control shapeId="81921" r:id="rId5" name="TextBox21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="81924" r:id="rId7" name="TextBox23">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId8">
+        <control shapeId="81922" r:id="rId7" name="TextBox22">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>336550</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1209675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>1212850</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>25400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="81924" r:id="rId7" name="TextBox23"/>
+        <control shapeId="81922" r:id="rId7" name="TextBox22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -33799,15 +33788,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
+                <xdr:colOff>565150</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>127000</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1581150</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -33819,52 +33808,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="81922" r:id="rId11" name="TextBox22">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+        <control shapeId="81924" r:id="rId11" name="TextBox23">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>333375</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>12700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>165100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>1209675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>1212850</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="81922" r:id="rId11" name="TextBox22"/>
+        <control shapeId="81924" r:id="rId11" name="TextBox23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="81921" r:id="rId13" name="TextBox21">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId14">
+        <control shapeId="81927" r:id="rId13" name="TextBox24">
+          <controlPr autoLine="0" autoPict="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:colOff>31750</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>885825</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1193800</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="81921" r:id="rId13" name="TextBox21"/>
+        <control shapeId="81927" r:id="rId13" name="TextBox24"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
